--- a/import _test.xlsx
+++ b/import _test.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/import _test.xlsx
+++ b/import _test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,12 +31,12 @@
     <t xml:space="preserve">supply_date</t>
   </si>
   <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
     <t xml:space="preserve">generic_name</t>
   </si>
   <si>
+    <t xml:space="preserve">strength</t>
+  </si>
+  <si>
     <t xml:space="preserve">brand_name</t>
   </si>
   <si>
@@ -67,196 +67,229 @@
     <t xml:space="preserve">update_at</t>
   </si>
   <si>
-    <t xml:space="preserve">GLYCO-P 0.2MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycopyrrolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INJECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATROPINE ATP 0.6MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atropine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCIUM GLUCONATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcium Gluconate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPHEDRINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ephedrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLYCOPYRROLATE 0.2MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HALOTHANE/ML </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halothane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADENOSINE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adenosine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRENALIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adrenaline  (Epinephrine)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRACURIUM 25MG/5ML </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atracurium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRACURIUM 50MG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRACURIUM 50MG/5ML </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DURACAINE  (HEAVY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bupivacaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCAINE  (HEAVY)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUPIVACAINE  (PLAIN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOBUTAMINE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dobutamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOPAMINE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dopamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAWA LIDOCAINE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lidocaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KETAMINE 500MG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCAINE HEAVY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIDAZOLAM15MG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Midazolam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEOSTIGMINE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neostigmine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PANCURONIUM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pancuronium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROTAMINE SO4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protamine sulfate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SODIUM BICARBONATE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sodium bicarbonate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THIOPENTONE 1G </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiopental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIAZEPAM 10MG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diazepam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOFLUORANE  (AERANE)/ML </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isoflurane</t>
+    <t xml:space="preserve">AZITHROMYCIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIDALIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMAR &amp; PHAREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSPENSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARACETAMOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARATEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHARMATEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYRUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANCEMOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEIMETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIDSON PCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIDSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERYTHROMYCIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERYTHRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMZOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEFUROXIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKYCIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONY TRUIMPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRAXIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRAFLASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEFIXIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EZCEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRAFIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBENDAZOLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBEN-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENEITH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOXYCILLIN CLAVULANIC ACID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQUATIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBUPROFEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENEFEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABUFEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANZOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHALINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOXYCILLIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIRAMOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITAMIN-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VITAMIN C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METRONIDAZOLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMIBAGYL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFRAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIGYL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUGH (ADULT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXIPLON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUGH (CHILD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIVITAMIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHLOPHENIRAMINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASATON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPREST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORAL MORPHINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPOUNDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALBUTAMOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEROLINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADSON</t>
   </si>
   <si>
     <t xml:space="preserve">INHALER</t>
   </si>
   <si>
-    <t xml:space="preserve">KETAMINE 500MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDOCAINE 2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGNOCAINE+ADRENALIN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lidocaine + Adrenaline  (Epinephrine)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POTASSIUM CHLORIDE  (KCL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potassium chloride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPOFOL 200MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propofol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEVOFLUORANE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sevoflurane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SODIUM BICARBONATE  (NAHCO3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUXAMETHONIUM  (SUXA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Succinylcholine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THIOPENTONE STP  (500MG)</t>
+    <t xml:space="preserve">VIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERETIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMTRISIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMZOLYTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACHET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/26</t>
   </si>
 </sst>
 </file>
@@ -267,7 +300,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -314,6 +347,11 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -357,7 +395,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -382,6 +420,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +441,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -410,17 +452,16 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="83.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="42.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="33.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="36.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="28.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.77"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="11.54"/>
   </cols>
@@ -478,14 +519,27 @@
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>38</v>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>1</v>
@@ -495,16 +549,29 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>1</v>
@@ -514,16 +581,26 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>38</v>
+      <c r="E4" s="5"/>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>1</v>
@@ -533,16 +610,26 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>480</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>1</v>
@@ -552,16 +639,26 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>130</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>1</v>
@@ -571,16 +668,26 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
+      <c r="K7" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>150</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>1</v>
@@ -590,35 +697,55 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>170</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1850</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>1</v>
@@ -628,16 +755,26 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>1</v>
@@ -647,16 +784,26 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>75</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>1</v>
@@ -666,16 +813,26 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>17</v>
+      <c r="K12" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>1</v>
@@ -685,16 +842,26 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>400</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>1</v>
@@ -704,16 +871,26 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>380</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>1</v>
@@ -723,54 +900,78 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>3300</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>100</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>1</v>
@@ -780,16 +981,26 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>1</v>
@@ -799,16 +1010,26 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>1</v>
@@ -818,16 +1039,26 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>200</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>1</v>
@@ -837,16 +1068,26 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>38</v>
+        <v>67</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>1</v>
@@ -856,16 +1097,26 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>38</v>
+        <v>69</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>1</v>
@@ -875,16 +1126,26 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>38</v>
+        <v>70</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>66</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>1</v>
@@ -894,16 +1155,26 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>38</v>
+        <v>71</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>1</v>
@@ -913,16 +1184,23 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>17</v>
+        <v>74</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>1</v>
@@ -932,16 +1210,23 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>17</v>
+        <v>74</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>1</v>
@@ -951,16 +1236,26 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>38</v>
+        <v>77</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>1</v>
@@ -970,16 +1265,29 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>38</v>
+        <v>82</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>6250</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>1</v>
@@ -989,16 +1297,29 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="1" t="n">
-        <v>38</v>
+        <v>84</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>1227</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>1</v>
@@ -1008,36 +1329,36 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="N30" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
       <c r="N31" s="1" t="n">
         <v>1</v>
       </c>
@@ -1045,18 +1366,8 @@
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
       <c r="N32" s="1" t="n">
         <v>1</v>
       </c>
@@ -1064,18 +1375,8 @@
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
       <c r="N33" s="1" t="n">
         <v>1</v>
       </c>
@@ -1083,18 +1384,8 @@
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
       <c r="N34" s="1" t="n">
         <v>1</v>
       </c>
@@ -1102,18 +1393,8 @@
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
       <c r="N35" s="1" t="n">
         <v>1</v>
       </c>
@@ -1121,18 +1402,8 @@
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
       <c r="N36" s="1" t="n">
         <v>1</v>
       </c>
@@ -1140,19 +1411,27 @@
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
       <c r="N37" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="N38" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="N39" s="1" t="n">
         <v>1</v>
       </c>
     </row>
